--- a/浦东网络学院项目/网络学院项目周计划0723.xlsx
+++ b/浦东网络学院项目/网络学院项目周计划0723.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\周报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pocky\Desktop\浦东网络学院项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE0C5BF-5A82-485E-ACB4-4E144766F1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C347651-DC36-4822-A541-BE6F94FB8C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="21600" windowHeight="11385" tabRatio="775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目汇总" sheetId="33" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="WpsReserved_CellImgList" sheetId="11" state="veryHidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">网络学院项目本周工作完成情况!$A$1:$Q$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">网络学院项目本周工作完成情况!$A$1:$Q$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">网络学院项目累积工作情况!$A$1:$Q$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">网络学院项目下周工作计划!$A$1:$AM$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目汇总!$A$2:$O$21</definedName>
@@ -1491,7 +1491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1531,6 +1531,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1713,7 +1719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1951,24 +1957,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2031,6 +2019,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2452,945 +2482,945 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.125" style="97" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="97" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="97" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="97" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="97" customWidth="1"/>
-    <col min="6" max="7" width="9.125" style="97" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="98" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="97" customWidth="1"/>
-    <col min="10" max="11" width="9" style="97"/>
-    <col min="12" max="12" width="11.375" style="97" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="97" customWidth="1"/>
-    <col min="14" max="14" width="8.25" style="98" customWidth="1"/>
-    <col min="15" max="15" width="46.125" style="97" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="97"/>
+    <col min="1" max="1" width="44.125" style="91" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="91" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="91" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="91" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="91" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="91" customWidth="1"/>
+    <col min="8" max="8" width="4.875" style="92" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="91" customWidth="1"/>
+    <col min="10" max="11" width="9" style="91"/>
+    <col min="12" max="12" width="11.375" style="91" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="91" customWidth="1"/>
+    <col min="14" max="14" width="8.25" style="92" customWidth="1"/>
+    <col min="15" max="15" width="46.125" style="91" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="94" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A1" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="102" t="s">
+    <row r="1" spans="1:15" s="88" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102" t="s">
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102" t="s">
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="95" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="99" t="s">
+    <row r="2" spans="1:15" s="89" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="G2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="99" t="s">
+      <c r="K2" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="99" t="s">
+      <c r="L2" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="99" t="s">
+      <c r="M2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="102"/>
-    </row>
-    <row r="3" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="O2" s="96"/>
+    </row>
+    <row r="3" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A3" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="96">
+      <c r="C3" s="90">
         <v>44</v>
       </c>
-      <c r="D3" s="96">
+      <c r="D3" s="90">
         <v>44</v>
       </c>
-      <c r="E3" s="96">
+      <c r="E3" s="90">
         <v>44</v>
       </c>
-      <c r="F3" s="96">
-        <v>0</v>
-      </c>
-      <c r="G3" s="96">
+      <c r="F3" s="90">
+        <v>0</v>
+      </c>
+      <c r="G3" s="90">
         <v>17</v>
       </c>
-      <c r="H3" s="101">
+      <c r="H3" s="95">
         <v>27</v>
       </c>
-      <c r="N3" s="101"/>
-      <c r="O3" s="96" t="s">
+      <c r="N3" s="95"/>
+      <c r="O3" s="90" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A4" s="96" t="s">
+    <row r="4" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="96">
+      <c r="C4" s="90">
         <v>18</v>
       </c>
-      <c r="D4" s="96">
+      <c r="D4" s="90">
         <v>1</v>
       </c>
-      <c r="E4" s="96">
+      <c r="E4" s="90">
         <v>1</v>
       </c>
-      <c r="F4" s="96">
+      <c r="F4" s="90">
         <v>6</v>
       </c>
-      <c r="G4" s="96">
+      <c r="G4" s="90">
         <v>1</v>
       </c>
-      <c r="H4" s="101">
-        <v>0</v>
-      </c>
-      <c r="I4" s="96">
+      <c r="H4" s="95">
+        <v>0</v>
+      </c>
+      <c r="I4" s="90">
         <v>7</v>
       </c>
-      <c r="J4" s="96">
-        <v>0</v>
-      </c>
-      <c r="K4" s="96">
-        <v>0</v>
-      </c>
-      <c r="L4" s="96">
-        <v>0</v>
-      </c>
-      <c r="M4" s="96">
-        <v>0</v>
-      </c>
-      <c r="N4" s="101">
-        <v>0</v>
-      </c>
-      <c r="O4" s="96" t="s">
+      <c r="J4" s="90">
+        <v>0</v>
+      </c>
+      <c r="K4" s="90">
+        <v>0</v>
+      </c>
+      <c r="L4" s="90">
+        <v>0</v>
+      </c>
+      <c r="M4" s="90">
+        <v>0</v>
+      </c>
+      <c r="N4" s="95">
+        <v>0</v>
+      </c>
+      <c r="O4" s="90" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A5" s="96" t="s">
+    <row r="5" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="96">
+      <c r="C5" s="90">
         <v>32</v>
       </c>
-      <c r="D5" s="96">
+      <c r="D5" s="90">
         <v>3</v>
       </c>
-      <c r="E5" s="96">
+      <c r="E5" s="90">
         <v>3</v>
       </c>
-      <c r="F5" s="96">
+      <c r="F5" s="90">
         <v>4</v>
       </c>
-      <c r="G5" s="96">
+      <c r="G5" s="90">
         <v>3</v>
       </c>
-      <c r="H5" s="101">
-        <v>0</v>
-      </c>
-      <c r="I5" s="96">
+      <c r="H5" s="95">
+        <v>0</v>
+      </c>
+      <c r="I5" s="90">
         <v>28</v>
       </c>
-      <c r="J5" s="96">
-        <v>0</v>
-      </c>
-      <c r="K5" s="96">
-        <v>0</v>
-      </c>
-      <c r="L5" s="96">
-        <v>0</v>
-      </c>
-      <c r="M5" s="96">
-        <v>0</v>
-      </c>
-      <c r="N5" s="101">
-        <v>0</v>
-      </c>
-      <c r="O5" s="96" t="s">
+      <c r="J5" s="90">
+        <v>0</v>
+      </c>
+      <c r="K5" s="90">
+        <v>0</v>
+      </c>
+      <c r="L5" s="90">
+        <v>0</v>
+      </c>
+      <c r="M5" s="90">
+        <v>0</v>
+      </c>
+      <c r="N5" s="95">
+        <v>0</v>
+      </c>
+      <c r="O5" s="90" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A6" s="96" t="s">
+    <row r="6" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A6" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="96">
+      <c r="C6" s="90">
         <v>4</v>
       </c>
-      <c r="D6" s="96">
-        <v>0</v>
-      </c>
-      <c r="E6" s="96">
-        <v>0</v>
-      </c>
-      <c r="F6" s="96">
-        <v>0</v>
-      </c>
-      <c r="G6" s="96">
-        <v>0</v>
-      </c>
-      <c r="H6" s="101">
-        <v>0</v>
-      </c>
-      <c r="I6" s="96">
-        <v>0</v>
-      </c>
-      <c r="J6" s="96">
-        <v>0</v>
-      </c>
-      <c r="K6" s="96">
-        <v>0</v>
-      </c>
-      <c r="L6" s="96">
-        <v>0</v>
-      </c>
-      <c r="M6" s="96">
-        <v>0</v>
-      </c>
-      <c r="N6" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A7" s="96" t="s">
+      <c r="D6" s="90">
+        <v>0</v>
+      </c>
+      <c r="E6" s="90">
+        <v>0</v>
+      </c>
+      <c r="F6" s="90">
+        <v>0</v>
+      </c>
+      <c r="G6" s="90">
+        <v>0</v>
+      </c>
+      <c r="H6" s="95">
+        <v>0</v>
+      </c>
+      <c r="I6" s="90">
+        <v>0</v>
+      </c>
+      <c r="J6" s="90">
+        <v>0</v>
+      </c>
+      <c r="K6" s="90">
+        <v>0</v>
+      </c>
+      <c r="L6" s="90">
+        <v>0</v>
+      </c>
+      <c r="M6" s="90">
+        <v>0</v>
+      </c>
+      <c r="N6" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A7" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="96">
+      <c r="C7" s="90">
         <v>16</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="90">
         <v>3</v>
       </c>
-      <c r="E7" s="96">
+      <c r="E7" s="90">
         <v>3</v>
       </c>
-      <c r="F7" s="96">
+      <c r="F7" s="90">
         <v>2</v>
       </c>
-      <c r="G7" s="96">
+      <c r="G7" s="90">
         <v>3</v>
       </c>
-      <c r="H7" s="101">
-        <v>0</v>
-      </c>
-      <c r="I7" s="96">
+      <c r="H7" s="95">
+        <v>0</v>
+      </c>
+      <c r="I7" s="90">
         <v>8</v>
       </c>
-      <c r="J7" s="96">
-        <v>0</v>
-      </c>
-      <c r="K7" s="96">
-        <v>0</v>
-      </c>
-      <c r="L7" s="96">
+      <c r="J7" s="90">
+        <v>0</v>
+      </c>
+      <c r="K7" s="90">
+        <v>0</v>
+      </c>
+      <c r="L7" s="90">
         <v>4</v>
       </c>
-      <c r="M7" s="96">
-        <v>0</v>
-      </c>
-      <c r="N7" s="101">
-        <v>0</v>
-      </c>
-      <c r="O7" s="96" t="s">
+      <c r="M7" s="90">
+        <v>0</v>
+      </c>
+      <c r="N7" s="95">
+        <v>0</v>
+      </c>
+      <c r="O7" s="90" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A8" s="96" t="s">
+    <row r="8" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A8" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="96">
+      <c r="C8" s="90">
         <v>10</v>
       </c>
-      <c r="D8" s="96">
+      <c r="D8" s="90">
         <v>1</v>
       </c>
-      <c r="E8" s="96">
-        <v>0</v>
-      </c>
-      <c r="F8" s="96">
-        <v>0</v>
-      </c>
-      <c r="G8" s="96">
+      <c r="E8" s="90">
+        <v>0</v>
+      </c>
+      <c r="F8" s="90">
+        <v>0</v>
+      </c>
+      <c r="G8" s="90">
         <v>1</v>
       </c>
-      <c r="H8" s="101">
-        <v>0</v>
-      </c>
-      <c r="I8" s="96">
-        <v>0</v>
-      </c>
-      <c r="J8" s="96">
-        <v>0</v>
-      </c>
-      <c r="K8" s="96">
-        <v>0</v>
-      </c>
-      <c r="L8" s="96">
-        <v>0</v>
-      </c>
-      <c r="M8" s="96">
-        <v>0</v>
-      </c>
-      <c r="N8" s="101">
-        <v>0</v>
-      </c>
-      <c r="O8" s="96" t="s">
+      <c r="H8" s="95">
+        <v>0</v>
+      </c>
+      <c r="I8" s="90">
+        <v>0</v>
+      </c>
+      <c r="J8" s="90">
+        <v>0</v>
+      </c>
+      <c r="K8" s="90">
+        <v>0</v>
+      </c>
+      <c r="L8" s="90">
+        <v>0</v>
+      </c>
+      <c r="M8" s="90">
+        <v>0</v>
+      </c>
+      <c r="N8" s="95">
+        <v>0</v>
+      </c>
+      <c r="O8" s="90" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A9" s="96" t="s">
+    <row r="9" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A9" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="96">
+      <c r="C9" s="90">
         <v>16</v>
       </c>
-      <c r="D9" s="96">
-        <v>0</v>
-      </c>
-      <c r="E9" s="96">
-        <v>0</v>
-      </c>
-      <c r="F9" s="96">
+      <c r="D9" s="90">
+        <v>0</v>
+      </c>
+      <c r="E9" s="90">
+        <v>0</v>
+      </c>
+      <c r="F9" s="90">
         <v>1</v>
       </c>
-      <c r="G9" s="96">
-        <v>0</v>
-      </c>
-      <c r="H9" s="101">
-        <v>0</v>
-      </c>
-      <c r="I9" s="96">
+      <c r="G9" s="90">
+        <v>0</v>
+      </c>
+      <c r="H9" s="95">
+        <v>0</v>
+      </c>
+      <c r="I9" s="90">
         <v>6</v>
       </c>
-      <c r="J9" s="96">
-        <v>0</v>
-      </c>
-      <c r="K9" s="96">
-        <v>0</v>
-      </c>
-      <c r="L9" s="96">
+      <c r="J9" s="90">
+        <v>0</v>
+      </c>
+      <c r="K9" s="90">
+        <v>0</v>
+      </c>
+      <c r="L9" s="90">
         <v>2</v>
       </c>
-      <c r="M9" s="96">
-        <v>0</v>
-      </c>
-      <c r="N9" s="101">
-        <v>0</v>
-      </c>
-      <c r="O9" s="96" t="s">
+      <c r="M9" s="90">
+        <v>0</v>
+      </c>
+      <c r="N9" s="95">
+        <v>0</v>
+      </c>
+      <c r="O9" s="90" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A10" s="96" t="s">
+    <row r="10" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A10" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="96">
+      <c r="C10" s="90">
         <v>13</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="90">
         <v>5</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E10" s="90">
         <v>5</v>
       </c>
-      <c r="F10" s="96">
-        <v>0</v>
-      </c>
-      <c r="G10" s="96">
+      <c r="F10" s="90">
+        <v>0</v>
+      </c>
+      <c r="G10" s="90">
         <v>5</v>
       </c>
-      <c r="H10" s="101">
-        <v>0</v>
-      </c>
-      <c r="I10" s="96">
-        <v>0</v>
-      </c>
-      <c r="J10" s="96">
-        <v>0</v>
-      </c>
-      <c r="K10" s="96">
-        <v>0</v>
-      </c>
-      <c r="L10" s="96">
-        <v>0</v>
-      </c>
-      <c r="M10" s="96">
-        <v>0</v>
-      </c>
-      <c r="N10" s="101">
-        <v>0</v>
-      </c>
-      <c r="O10" s="96" t="s">
+      <c r="H10" s="95">
+        <v>0</v>
+      </c>
+      <c r="I10" s="90">
+        <v>0</v>
+      </c>
+      <c r="J10" s="90">
+        <v>0</v>
+      </c>
+      <c r="K10" s="90">
+        <v>0</v>
+      </c>
+      <c r="L10" s="90">
+        <v>0</v>
+      </c>
+      <c r="M10" s="90">
+        <v>0</v>
+      </c>
+      <c r="N10" s="95">
+        <v>0</v>
+      </c>
+      <c r="O10" s="90" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A11" s="96" t="s">
+    <row r="11" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A11" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="96">
+      <c r="C11" s="90">
         <v>13</v>
       </c>
-      <c r="D11" s="96">
+      <c r="D11" s="90">
         <v>1</v>
       </c>
-      <c r="E11" s="96">
+      <c r="E11" s="90">
         <v>1</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F11" s="90">
         <v>2</v>
       </c>
-      <c r="G11" s="96">
+      <c r="G11" s="90">
         <v>1</v>
       </c>
-      <c r="H11" s="101">
-        <v>0</v>
-      </c>
-      <c r="I11" s="96">
-        <v>0</v>
-      </c>
-      <c r="J11" s="96">
-        <v>0</v>
-      </c>
-      <c r="K11" s="96">
-        <v>0</v>
-      </c>
-      <c r="L11" s="96">
-        <v>0</v>
-      </c>
-      <c r="M11" s="96">
-        <v>0</v>
-      </c>
-      <c r="N11" s="101">
-        <v>0</v>
-      </c>
-      <c r="O11" s="96" t="s">
+      <c r="H11" s="95">
+        <v>0</v>
+      </c>
+      <c r="I11" s="90">
+        <v>0</v>
+      </c>
+      <c r="J11" s="90">
+        <v>0</v>
+      </c>
+      <c r="K11" s="90">
+        <v>0</v>
+      </c>
+      <c r="L11" s="90">
+        <v>0</v>
+      </c>
+      <c r="M11" s="90">
+        <v>0</v>
+      </c>
+      <c r="N11" s="95">
+        <v>0</v>
+      </c>
+      <c r="O11" s="90" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A12" s="96" t="s">
+    <row r="12" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A12" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="96">
+      <c r="C12" s="90">
         <v>1</v>
       </c>
-      <c r="D12" s="96">
+      <c r="D12" s="90">
         <v>1</v>
       </c>
-      <c r="E12" s="96">
-        <v>0</v>
-      </c>
-      <c r="F12" s="96">
-        <v>0</v>
-      </c>
-      <c r="G12" s="96">
+      <c r="E12" s="90">
+        <v>0</v>
+      </c>
+      <c r="F12" s="90">
+        <v>0</v>
+      </c>
+      <c r="G12" s="90">
         <v>1</v>
       </c>
-      <c r="H12" s="101">
-        <v>0</v>
-      </c>
-      <c r="I12" s="96">
+      <c r="H12" s="95">
+        <v>0</v>
+      </c>
+      <c r="I12" s="90">
         <v>2</v>
       </c>
-      <c r="J12" s="96">
-        <v>0</v>
-      </c>
-      <c r="K12" s="96">
-        <v>0</v>
-      </c>
-      <c r="L12" s="96">
-        <v>0</v>
-      </c>
-      <c r="M12" s="96">
-        <v>0</v>
-      </c>
-      <c r="N12" s="101">
-        <v>0</v>
-      </c>
-      <c r="O12" s="96" t="s">
+      <c r="J12" s="90">
+        <v>0</v>
+      </c>
+      <c r="K12" s="90">
+        <v>0</v>
+      </c>
+      <c r="L12" s="90">
+        <v>0</v>
+      </c>
+      <c r="M12" s="90">
+        <v>0</v>
+      </c>
+      <c r="N12" s="95">
+        <v>0</v>
+      </c>
+      <c r="O12" s="90" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A13" s="96" t="s">
+    <row r="13" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A13" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="96">
+      <c r="C13" s="90">
         <v>27</v>
       </c>
-      <c r="D13" s="96">
+      <c r="D13" s="90">
         <v>1</v>
       </c>
-      <c r="E13" s="96">
+      <c r="E13" s="90">
         <v>1</v>
       </c>
-      <c r="F13" s="96">
+      <c r="F13" s="90">
         <v>6</v>
       </c>
-      <c r="G13" s="96">
+      <c r="G13" s="90">
         <v>1</v>
       </c>
-      <c r="H13" s="101">
-        <v>0</v>
-      </c>
-      <c r="I13" s="96">
+      <c r="H13" s="95">
+        <v>0</v>
+      </c>
+      <c r="I13" s="90">
         <v>16</v>
       </c>
-      <c r="J13" s="96">
-        <v>0</v>
-      </c>
-      <c r="K13" s="96">
-        <v>0</v>
-      </c>
-      <c r="L13" s="96">
-        <v>0</v>
-      </c>
-      <c r="M13" s="96">
-        <v>0</v>
-      </c>
-      <c r="N13" s="101">
-        <v>0</v>
-      </c>
-      <c r="O13" s="96" t="s">
+      <c r="J13" s="90">
+        <v>0</v>
+      </c>
+      <c r="K13" s="90">
+        <v>0</v>
+      </c>
+      <c r="L13" s="90">
+        <v>0</v>
+      </c>
+      <c r="M13" s="90">
+        <v>0</v>
+      </c>
+      <c r="N13" s="95">
+        <v>0</v>
+      </c>
+      <c r="O13" s="90" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A14" s="96" t="s">
+    <row r="14" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A14" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="96">
+      <c r="C14" s="90">
         <v>8</v>
       </c>
-      <c r="D14" s="96">
-        <v>0</v>
-      </c>
-      <c r="E14" s="96">
-        <v>0</v>
-      </c>
-      <c r="F14" s="96">
-        <v>0</v>
-      </c>
-      <c r="G14" s="96">
-        <v>0</v>
-      </c>
-      <c r="H14" s="101">
-        <v>0</v>
-      </c>
-      <c r="I14" s="96">
-        <v>0</v>
-      </c>
-      <c r="J14" s="96">
-        <v>0</v>
-      </c>
-      <c r="K14" s="96">
-        <v>0</v>
-      </c>
-      <c r="L14" s="96">
-        <v>0</v>
-      </c>
-      <c r="M14" s="96">
-        <v>0</v>
-      </c>
-      <c r="N14" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A15" s="96" t="s">
+      <c r="D14" s="90">
+        <v>0</v>
+      </c>
+      <c r="E14" s="90">
+        <v>0</v>
+      </c>
+      <c r="F14" s="90">
+        <v>0</v>
+      </c>
+      <c r="G14" s="90">
+        <v>0</v>
+      </c>
+      <c r="H14" s="95">
+        <v>0</v>
+      </c>
+      <c r="I14" s="90">
+        <v>0</v>
+      </c>
+      <c r="J14" s="90">
+        <v>0</v>
+      </c>
+      <c r="K14" s="90">
+        <v>0</v>
+      </c>
+      <c r="L14" s="90">
+        <v>0</v>
+      </c>
+      <c r="M14" s="90">
+        <v>0</v>
+      </c>
+      <c r="N14" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A15" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="96">
+      <c r="C15" s="90">
         <v>10</v>
       </c>
-      <c r="D15" s="96">
-        <v>0</v>
-      </c>
-      <c r="E15" s="96">
-        <v>0</v>
-      </c>
-      <c r="F15" s="96">
-        <v>0</v>
-      </c>
-      <c r="G15" s="96">
-        <v>0</v>
-      </c>
-      <c r="H15" s="101">
-        <v>0</v>
-      </c>
-      <c r="I15" s="96">
+      <c r="D15" s="90">
+        <v>0</v>
+      </c>
+      <c r="E15" s="90">
+        <v>0</v>
+      </c>
+      <c r="F15" s="90">
+        <v>0</v>
+      </c>
+      <c r="G15" s="90">
+        <v>0</v>
+      </c>
+      <c r="H15" s="95">
+        <v>0</v>
+      </c>
+      <c r="I15" s="90">
         <v>5</v>
       </c>
-      <c r="J15" s="96">
+      <c r="J15" s="90">
         <v>1</v>
       </c>
-      <c r="K15" s="96">
+      <c r="K15" s="90">
         <v>1</v>
       </c>
-      <c r="L15" s="96">
+      <c r="L15" s="90">
         <v>3</v>
       </c>
-      <c r="M15" s="96">
+      <c r="M15" s="90">
         <v>1</v>
       </c>
-      <c r="N15" s="101">
-        <v>0</v>
-      </c>
-      <c r="O15" s="96" t="s">
+      <c r="N15" s="95">
+        <v>0</v>
+      </c>
+      <c r="O15" s="90" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A16" s="96" t="s">
+    <row r="16" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A16" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="96">
+      <c r="C16" s="90">
         <v>8</v>
       </c>
-      <c r="D16" s="96">
-        <v>0</v>
-      </c>
-      <c r="E16" s="96">
-        <v>0</v>
-      </c>
-      <c r="F16" s="96">
-        <v>0</v>
-      </c>
-      <c r="G16" s="96">
-        <v>0</v>
-      </c>
-      <c r="H16" s="101">
-        <v>0</v>
-      </c>
-      <c r="I16" s="96">
+      <c r="D16" s="90">
+        <v>0</v>
+      </c>
+      <c r="E16" s="90">
+        <v>0</v>
+      </c>
+      <c r="F16" s="90">
+        <v>0</v>
+      </c>
+      <c r="G16" s="90">
+        <v>0</v>
+      </c>
+      <c r="H16" s="95">
+        <v>0</v>
+      </c>
+      <c r="I16" s="90">
         <v>12</v>
       </c>
-      <c r="J16" s="96">
-        <v>0</v>
-      </c>
-      <c r="K16" s="96">
-        <v>0</v>
-      </c>
-      <c r="L16" s="96">
-        <v>0</v>
-      </c>
-      <c r="M16" s="96">
-        <v>0</v>
-      </c>
-      <c r="N16" s="101">
-        <v>0</v>
-      </c>
-      <c r="O16" s="96" t="s">
+      <c r="J16" s="90">
+        <v>0</v>
+      </c>
+      <c r="K16" s="90">
+        <v>0</v>
+      </c>
+      <c r="L16" s="90">
+        <v>0</v>
+      </c>
+      <c r="M16" s="90">
+        <v>0</v>
+      </c>
+      <c r="N16" s="95">
+        <v>0</v>
+      </c>
+      <c r="O16" s="90" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A17" s="96" t="s">
+    <row r="17" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A17" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="96">
+      <c r="C17" s="90">
         <v>12</v>
       </c>
-      <c r="D17" s="96">
+      <c r="D17" s="90">
         <v>1</v>
       </c>
-      <c r="E17" s="96">
-        <v>0</v>
-      </c>
-      <c r="F17" s="96">
+      <c r="E17" s="90">
+        <v>0</v>
+      </c>
+      <c r="F17" s="90">
         <v>3</v>
       </c>
-      <c r="G17" s="96">
+      <c r="G17" s="90">
         <v>1</v>
       </c>
-      <c r="H17" s="101">
-        <v>0</v>
-      </c>
-      <c r="I17" s="96">
-        <v>0</v>
-      </c>
-      <c r="J17" s="96">
-        <v>0</v>
-      </c>
-      <c r="K17" s="96">
-        <v>0</v>
-      </c>
-      <c r="L17" s="96">
-        <v>0</v>
-      </c>
-      <c r="M17" s="96">
-        <v>0</v>
-      </c>
-      <c r="N17" s="101">
-        <v>0</v>
-      </c>
-      <c r="O17" s="96" t="s">
+      <c r="H17" s="95">
+        <v>0</v>
+      </c>
+      <c r="I17" s="90">
+        <v>0</v>
+      </c>
+      <c r="J17" s="90">
+        <v>0</v>
+      </c>
+      <c r="K17" s="90">
+        <v>0</v>
+      </c>
+      <c r="L17" s="90">
+        <v>0</v>
+      </c>
+      <c r="M17" s="90">
+        <v>0</v>
+      </c>
+      <c r="N17" s="95">
+        <v>0</v>
+      </c>
+      <c r="O17" s="90" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A18" s="96" t="s">
+    <row r="18" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A18" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="96">
-        <v>0</v>
-      </c>
-      <c r="D18" s="96">
-        <v>0</v>
-      </c>
-      <c r="E18" s="96">
-        <v>0</v>
-      </c>
-      <c r="F18" s="96">
-        <v>0</v>
-      </c>
-      <c r="G18" s="96">
-        <v>0</v>
-      </c>
-      <c r="H18" s="101">
-        <v>0</v>
-      </c>
-      <c r="I18" s="96">
-        <v>0</v>
-      </c>
-      <c r="J18" s="96">
-        <v>0</v>
-      </c>
-      <c r="K18" s="96">
-        <v>0</v>
-      </c>
-      <c r="L18" s="96">
-        <v>0</v>
-      </c>
-      <c r="M18" s="96">
-        <v>0</v>
-      </c>
-      <c r="N18" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A19" s="96" t="s">
+      <c r="C18" s="90">
+        <v>0</v>
+      </c>
+      <c r="D18" s="90">
+        <v>0</v>
+      </c>
+      <c r="E18" s="90">
+        <v>0</v>
+      </c>
+      <c r="F18" s="90">
+        <v>0</v>
+      </c>
+      <c r="G18" s="90">
+        <v>0</v>
+      </c>
+      <c r="H18" s="95">
+        <v>0</v>
+      </c>
+      <c r="I18" s="90">
+        <v>0</v>
+      </c>
+      <c r="J18" s="90">
+        <v>0</v>
+      </c>
+      <c r="K18" s="90">
+        <v>0</v>
+      </c>
+      <c r="L18" s="90">
+        <v>0</v>
+      </c>
+      <c r="M18" s="90">
+        <v>0</v>
+      </c>
+      <c r="N18" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A19" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="96">
-        <v>0</v>
-      </c>
-      <c r="D19" s="96">
-        <v>0</v>
-      </c>
-      <c r="E19" s="96">
-        <v>0</v>
-      </c>
-      <c r="F19" s="96">
-        <v>0</v>
-      </c>
-      <c r="G19" s="96">
-        <v>0</v>
-      </c>
-      <c r="H19" s="101">
-        <v>0</v>
-      </c>
-      <c r="I19" s="96">
-        <v>0</v>
-      </c>
-      <c r="J19" s="96">
-        <v>0</v>
-      </c>
-      <c r="K19" s="96">
-        <v>0</v>
-      </c>
-      <c r="L19" s="96">
-        <v>0</v>
-      </c>
-      <c r="M19" s="96">
-        <v>0</v>
-      </c>
-      <c r="N19" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A20" s="96" t="s">
+      <c r="C19" s="90">
+        <v>0</v>
+      </c>
+      <c r="D19" s="90">
+        <v>0</v>
+      </c>
+      <c r="E19" s="90">
+        <v>0</v>
+      </c>
+      <c r="F19" s="90">
+        <v>0</v>
+      </c>
+      <c r="G19" s="90">
+        <v>0</v>
+      </c>
+      <c r="H19" s="95">
+        <v>0</v>
+      </c>
+      <c r="I19" s="90">
+        <v>0</v>
+      </c>
+      <c r="J19" s="90">
+        <v>0</v>
+      </c>
+      <c r="K19" s="90">
+        <v>0</v>
+      </c>
+      <c r="L19" s="90">
+        <v>0</v>
+      </c>
+      <c r="M19" s="90">
+        <v>0</v>
+      </c>
+      <c r="N19" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A20" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="96">
+      <c r="C20" s="90">
         <v>1</v>
       </c>
-      <c r="D20" s="96">
+      <c r="D20" s="90">
         <v>1</v>
       </c>
-      <c r="E20" s="96">
+      <c r="E20" s="90">
         <v>1</v>
       </c>
-      <c r="F20" s="96">
-        <v>0</v>
-      </c>
-      <c r="G20" s="96">
+      <c r="F20" s="90">
+        <v>0</v>
+      </c>
+      <c r="G20" s="90">
         <v>1</v>
       </c>
-      <c r="H20" s="101">
-        <v>0</v>
-      </c>
-      <c r="I20" s="96">
-        <v>0</v>
-      </c>
-      <c r="J20" s="96">
-        <v>0</v>
-      </c>
-      <c r="K20" s="96">
-        <v>0</v>
-      </c>
-      <c r="L20" s="96">
-        <v>0</v>
-      </c>
-      <c r="M20" s="96">
-        <v>0</v>
-      </c>
-      <c r="N20" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="96" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A21" s="96" t="s">
+      <c r="H20" s="95">
+        <v>0</v>
+      </c>
+      <c r="I20" s="90">
+        <v>0</v>
+      </c>
+      <c r="J20" s="90">
+        <v>0</v>
+      </c>
+      <c r="K20" s="90">
+        <v>0</v>
+      </c>
+      <c r="L20" s="90">
+        <v>0</v>
+      </c>
+      <c r="M20" s="90">
+        <v>0</v>
+      </c>
+      <c r="N20" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="90" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A21" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="96">
-        <v>0</v>
-      </c>
-      <c r="D21" s="96">
-        <v>0</v>
-      </c>
-      <c r="E21" s="96">
-        <v>0</v>
-      </c>
-      <c r="F21" s="96">
-        <v>0</v>
-      </c>
-      <c r="G21" s="96">
-        <v>0</v>
-      </c>
-      <c r="H21" s="96">
-        <v>0</v>
-      </c>
-      <c r="I21" s="96">
-        <v>0</v>
-      </c>
-      <c r="J21" s="96">
-        <v>0</v>
-      </c>
-      <c r="K21" s="96">
-        <v>0</v>
-      </c>
-      <c r="L21" s="96">
-        <v>0</v>
-      </c>
-      <c r="M21" s="96">
-        <v>0</v>
-      </c>
-      <c r="N21" s="96">
+      <c r="C21" s="90">
+        <v>0</v>
+      </c>
+      <c r="D21" s="90">
+        <v>0</v>
+      </c>
+      <c r="E21" s="90">
+        <v>0</v>
+      </c>
+      <c r="F21" s="90">
+        <v>0</v>
+      </c>
+      <c r="G21" s="90">
+        <v>0</v>
+      </c>
+      <c r="H21" s="90">
+        <v>0</v>
+      </c>
+      <c r="I21" s="90">
+        <v>0</v>
+      </c>
+      <c r="J21" s="90">
+        <v>0</v>
+      </c>
+      <c r="K21" s="90">
+        <v>0</v>
+      </c>
+      <c r="L21" s="90">
+        <v>0</v>
+      </c>
+      <c r="M21" s="90">
+        <v>0</v>
+      </c>
+      <c r="N21" s="90">
         <v>0</v>
       </c>
     </row>
@@ -3424,85 +3454,85 @@
     <col min="4" max="4" width="52.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="86" customFormat="1" ht="33" customHeight="1">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:4" s="80" customFormat="1" ht="33" customHeight="1">
+      <c r="A1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="81" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" customHeight="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="90">
+      <c r="C2" s="84">
         <v>48</v>
       </c>
-      <c r="D2" s="91"/>
+      <c r="D2" s="85"/>
     </row>
     <row r="3" spans="1:4" ht="33" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="88" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="92">
+      <c r="C3" s="86">
         <v>40</v>
       </c>
       <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" ht="33" customHeight="1">
-      <c r="A4" s="105"/>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="99"/>
+      <c r="B4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="92">
+      <c r="C4" s="86">
         <v>40</v>
       </c>
       <c r="D4" s="74"/>
     </row>
     <row r="5" spans="1:4" ht="33" customHeight="1">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="92">
+      <c r="C5" s="86">
         <v>48</v>
       </c>
       <c r="D5" s="43"/>
     </row>
     <row r="6" spans="1:4" ht="33" customHeight="1">
-      <c r="A6" s="105"/>
-      <c r="B6" s="88" t="s">
+      <c r="A6" s="99"/>
+      <c r="B6" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="86">
         <v>48</v>
       </c>
       <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:4" ht="33" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="86">
         <v>40</v>
       </c>
-      <c r="D7" s="93"/>
+      <c r="D7" s="87"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -3518,10 +3548,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AM146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -3599,7 +3630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:39" customFormat="1">
+    <row r="2" spans="1:39" customFormat="1" hidden="1">
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
@@ -3623,16 +3654,16 @@
       <c r="I2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="85">
+      <c r="J2" s="79">
         <v>44403</v>
       </c>
-      <c r="K2" s="85">
+      <c r="K2" s="79">
         <v>44407</v>
       </c>
       <c r="L2" s="56"/>
       <c r="M2" s="32"/>
     </row>
-    <row r="3" spans="1:39" customFormat="1">
+    <row r="3" spans="1:39" customFormat="1" hidden="1">
       <c r="A3" s="5" t="s">
         <v>70</v>
       </c>
@@ -3656,16 +3687,16 @@
       <c r="I3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="85">
+      <c r="J3" s="79">
         <v>44403</v>
       </c>
-      <c r="K3" s="85">
+      <c r="K3" s="79">
         <v>44407</v>
       </c>
       <c r="L3" s="56"/>
       <c r="M3" s="32"/>
     </row>
-    <row r="4" spans="1:39" s="5" customFormat="1">
+    <row r="4" spans="1:39" s="5" customFormat="1" hidden="1">
       <c r="A4" s="5" t="s">
         <v>72</v>
       </c>
@@ -3687,10 +3718,10 @@
       <c r="I4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="85">
+      <c r="J4" s="79">
         <v>44403</v>
       </c>
-      <c r="K4" s="85">
+      <c r="K4" s="79">
         <v>44407</v>
       </c>
       <c r="L4" s="32"/>
@@ -3722,7 +3753,7 @@
       <c r="AL4" s="24"/>
       <c r="AM4" s="25"/>
     </row>
-    <row r="5" spans="1:39" customFormat="1">
+    <row r="5" spans="1:39" customFormat="1" hidden="1">
       <c r="A5" s="5" t="s">
         <v>76</v>
       </c>
@@ -3746,16 +3777,16 @@
       <c r="I5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="85">
+      <c r="J5" s="79">
         <v>44403</v>
       </c>
-      <c r="K5" s="85">
+      <c r="K5" s="79">
         <v>44407</v>
       </c>
       <c r="L5" s="56"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:39" customFormat="1">
+    <row r="6" spans="1:39" customFormat="1" hidden="1">
       <c r="A6" s="11" t="s">
         <v>79</v>
       </c>
@@ -3779,16 +3810,16 @@
       <c r="I6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="85">
+      <c r="J6" s="79">
         <v>44403</v>
       </c>
-      <c r="K6" s="85">
+      <c r="K6" s="79">
         <v>44407</v>
       </c>
       <c r="L6" s="56"/>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="1:39" ht="15.95" customHeight="1">
+    <row r="7" spans="1:39" ht="15.95" hidden="1" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>83</v>
       </c>
@@ -3811,16 +3842,16 @@
       <c r="I7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="85">
+      <c r="J7" s="79">
         <v>44403</v>
       </c>
-      <c r="K7" s="85">
+      <c r="K7" s="79">
         <v>44407</v>
       </c>
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="1:39" s="32" customFormat="1">
+    <row r="8" spans="1:39" s="32" customFormat="1" hidden="1">
       <c r="A8" s="11" t="s">
         <v>86</v>
       </c>
@@ -3843,17 +3874,17 @@
       <c r="I8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="85">
+      <c r="J8" s="79">
         <v>44403</v>
       </c>
-      <c r="K8" s="85">
+      <c r="K8" s="79">
         <v>44407</v>
       </c>
       <c r="O8" s="76"/>
       <c r="P8" s="76"/>
       <c r="Q8" s="27"/>
     </row>
-    <row r="9" spans="1:39" s="32" customFormat="1">
+    <row r="9" spans="1:39" s="32" customFormat="1" hidden="1">
       <c r="A9" s="11" t="s">
         <v>86</v>
       </c>
@@ -3876,17 +3907,17 @@
       <c r="I9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="85">
+      <c r="J9" s="79">
         <v>44403</v>
       </c>
-      <c r="K9" s="85">
+      <c r="K9" s="79">
         <v>44407</v>
       </c>
       <c r="O9" s="76"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:39" s="32" customFormat="1">
+    <row r="10" spans="1:39" s="32" customFormat="1" hidden="1">
       <c r="A10" s="11" t="s">
         <v>86</v>
       </c>
@@ -3909,17 +3940,17 @@
       <c r="I10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="85">
+      <c r="J10" s="79">
         <v>44403</v>
       </c>
-      <c r="K10" s="85">
+      <c r="K10" s="79">
         <v>44407</v>
       </c>
       <c r="O10" s="76"/>
       <c r="P10" s="76"/>
       <c r="Q10" s="27"/>
     </row>
-    <row r="11" spans="1:39" s="32" customFormat="1">
+    <row r="11" spans="1:39" s="32" customFormat="1" hidden="1">
       <c r="A11" s="11" t="s">
         <v>86</v>
       </c>
@@ -3942,17 +3973,17 @@
       <c r="I11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="85">
+      <c r="J11" s="79">
         <v>44403</v>
       </c>
-      <c r="K11" s="85">
+      <c r="K11" s="79">
         <v>44407</v>
       </c>
       <c r="O11" s="76"/>
       <c r="P11" s="76"/>
       <c r="Q11" s="27"/>
     </row>
-    <row r="12" spans="1:39" s="32" customFormat="1">
+    <row r="12" spans="1:39" s="32" customFormat="1" hidden="1">
       <c r="A12" s="11" t="s">
         <v>86</v>
       </c>
@@ -3975,17 +4006,17 @@
       <c r="I12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="85">
+      <c r="J12" s="79">
         <v>44403</v>
       </c>
-      <c r="K12" s="85">
+      <c r="K12" s="79">
         <v>44407</v>
       </c>
       <c r="O12" s="76"/>
       <c r="P12" s="76"/>
       <c r="Q12" s="27"/>
     </row>
-    <row r="13" spans="1:39" s="32" customFormat="1">
+    <row r="13" spans="1:39" s="32" customFormat="1" hidden="1">
       <c r="A13" s="11" t="s">
         <v>86</v>
       </c>
@@ -4008,17 +4039,17 @@
       <c r="I13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="85">
+      <c r="J13" s="79">
         <v>44403</v>
       </c>
-      <c r="K13" s="85">
+      <c r="K13" s="79">
         <v>44407</v>
       </c>
       <c r="O13" s="76"/>
       <c r="P13" s="76"/>
       <c r="Q13" s="27"/>
     </row>
-    <row r="14" spans="1:39" s="32" customFormat="1">
+    <row r="14" spans="1:39" s="32" customFormat="1" hidden="1">
       <c r="A14" s="11" t="s">
         <v>86</v>
       </c>
@@ -4041,17 +4072,17 @@
       <c r="I14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="85">
+      <c r="J14" s="79">
         <v>44403</v>
       </c>
-      <c r="K14" s="85">
+      <c r="K14" s="79">
         <v>44407</v>
       </c>
       <c r="O14" s="76"/>
       <c r="P14" s="76"/>
       <c r="Q14" s="27"/>
     </row>
-    <row r="15" spans="1:39" s="32" customFormat="1">
+    <row r="15" spans="1:39" s="32" customFormat="1" hidden="1">
       <c r="A15" s="11" t="s">
         <v>86</v>
       </c>
@@ -4074,17 +4105,17 @@
       <c r="I15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="85">
+      <c r="J15" s="79">
         <v>44403</v>
       </c>
-      <c r="K15" s="85">
+      <c r="K15" s="79">
         <v>44407</v>
       </c>
       <c r="O15" s="76"/>
       <c r="P15" s="76"/>
       <c r="Q15" s="27"/>
     </row>
-    <row r="16" spans="1:39" s="32" customFormat="1">
+    <row r="16" spans="1:39" s="32" customFormat="1" hidden="1">
       <c r="A16" s="11" t="s">
         <v>96</v>
       </c>
@@ -4107,17 +4138,17 @@
       <c r="I16" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="85">
+      <c r="J16" s="79">
         <v>44403</v>
       </c>
-      <c r="K16" s="85">
+      <c r="K16" s="79">
         <v>44407</v>
       </c>
       <c r="O16" s="76"/>
       <c r="P16" s="76"/>
       <c r="Q16" s="27"/>
     </row>
-    <row r="17" spans="1:17" s="32" customFormat="1">
+    <row r="17" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A17" s="11" t="s">
         <v>96</v>
       </c>
@@ -4140,10 +4171,10 @@
       <c r="I17" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="85">
+      <c r="J17" s="79">
         <v>44403</v>
       </c>
-      <c r="K17" s="85">
+      <c r="K17" s="79">
         <v>44407</v>
       </c>
       <c r="O17" s="76"/>
@@ -4151,32 +4182,33 @@
       <c r="Q17" s="27"/>
     </row>
     <row r="18" spans="1:17" s="32" customFormat="1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="79" t="s">
+      <c r="D18" s="101"/>
+      <c r="E18" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="103"/>
+      <c r="G18" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="80" t="s">
+      <c r="H18" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="80" t="s">
+      <c r="I18" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="106">
         <v>44403</v>
       </c>
-      <c r="K18" s="85">
+      <c r="K18" s="107">
         <v>44407</v>
       </c>
       <c r="O18" s="76"/>
@@ -4184,32 +4216,33 @@
       <c r="Q18" s="27"/>
     </row>
     <row r="19" spans="1:17" s="32" customFormat="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="81" t="s">
+      <c r="D19" s="101"/>
+      <c r="E19" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="103"/>
+      <c r="G19" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="80" t="s">
+      <c r="H19" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="80" t="s">
+      <c r="I19" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="106">
         <v>44403</v>
       </c>
-      <c r="K19" s="85">
+      <c r="K19" s="107">
         <v>44407</v>
       </c>
       <c r="O19" s="76"/>
@@ -4217,32 +4250,33 @@
       <c r="Q19" s="27"/>
     </row>
     <row r="20" spans="1:17" s="32" customFormat="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="81" t="s">
+      <c r="D20" s="101"/>
+      <c r="E20" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="103"/>
+      <c r="G20" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="80" t="s">
+      <c r="H20" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="80" t="s">
+      <c r="I20" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="106">
         <v>44403</v>
       </c>
-      <c r="K20" s="85">
+      <c r="K20" s="107">
         <v>44407</v>
       </c>
       <c r="O20" s="76"/>
@@ -4250,32 +4284,33 @@
       <c r="Q20" s="27"/>
     </row>
     <row r="21" spans="1:17" s="32" customFormat="1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="82" t="s">
+      <c r="D21" s="101"/>
+      <c r="E21" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="103"/>
+      <c r="G21" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="80" t="s">
+      <c r="H21" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="80" t="s">
+      <c r="I21" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="106">
         <v>44403</v>
       </c>
-      <c r="K21" s="85">
+      <c r="K21" s="107">
         <v>44407</v>
       </c>
       <c r="O21" s="76"/>
@@ -4283,32 +4318,33 @@
       <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="1:17" s="32" customFormat="1">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="82" t="s">
+      <c r="D22" s="101"/>
+      <c r="E22" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="103"/>
+      <c r="G22" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="80" t="s">
+      <c r="H22" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="80" t="s">
+      <c r="I22" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="106">
         <v>44403</v>
       </c>
-      <c r="K22" s="85">
+      <c r="K22" s="107">
         <v>44407</v>
       </c>
       <c r="O22" s="76"/>
@@ -4316,32 +4352,33 @@
       <c r="Q22" s="27"/>
     </row>
     <row r="23" spans="1:17" s="32" customFormat="1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="83" t="s">
+      <c r="D23" s="101"/>
+      <c r="E23" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="103"/>
+      <c r="G23" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="80" t="s">
+      <c r="H23" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="80" t="s">
+      <c r="I23" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="106">
         <v>44403</v>
       </c>
-      <c r="K23" s="85">
+      <c r="K23" s="107">
         <v>44407</v>
       </c>
       <c r="O23" s="76"/>
@@ -4349,32 +4386,33 @@
       <c r="Q23" s="27"/>
     </row>
     <row r="24" spans="1:17" s="32" customFormat="1">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="83" t="s">
+      <c r="D24" s="101"/>
+      <c r="E24" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="103"/>
+      <c r="G24" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="80" t="s">
+      <c r="H24" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="80" t="s">
+      <c r="I24" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="106">
         <v>44403</v>
       </c>
-      <c r="K24" s="85">
+      <c r="K24" s="107">
         <v>44407</v>
       </c>
       <c r="O24" s="76"/>
@@ -4382,32 +4420,33 @@
       <c r="Q24" s="27"/>
     </row>
     <row r="25" spans="1:17" s="32" customFormat="1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="83" t="s">
+      <c r="D25" s="101"/>
+      <c r="E25" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="103"/>
+      <c r="G25" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="80" t="s">
+      <c r="H25" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="80" t="s">
+      <c r="I25" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="106">
         <v>44403</v>
       </c>
-      <c r="K25" s="85">
+      <c r="K25" s="107">
         <v>44407</v>
       </c>
       <c r="O25" s="76"/>
@@ -4415,32 +4454,33 @@
       <c r="Q25" s="27"/>
     </row>
     <row r="26" spans="1:17" s="32" customFormat="1">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="83" t="s">
+      <c r="D26" s="101"/>
+      <c r="E26" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="103"/>
+      <c r="G26" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="80" t="s">
+      <c r="H26" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="80" t="s">
+      <c r="I26" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="106">
         <v>44403</v>
       </c>
-      <c r="K26" s="85">
+      <c r="K26" s="107">
         <v>44407</v>
       </c>
       <c r="O26" s="76"/>
@@ -4448,32 +4488,33 @@
       <c r="Q26" s="27"/>
     </row>
     <row r="27" spans="1:17" s="32" customFormat="1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="84" t="s">
+      <c r="D27" s="101"/>
+      <c r="E27" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="103"/>
+      <c r="G27" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="H27" s="80" t="s">
+      <c r="H27" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="80" t="s">
+      <c r="I27" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="106">
         <v>44403</v>
       </c>
-      <c r="K27" s="85">
+      <c r="K27" s="107">
         <v>44407</v>
       </c>
       <c r="O27" s="76"/>
@@ -4481,32 +4522,33 @@
       <c r="Q27" s="27"/>
     </row>
     <row r="28" spans="1:17" s="32" customFormat="1">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="83" t="s">
+      <c r="D28" s="101"/>
+      <c r="E28" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="103"/>
+      <c r="G28" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="80" t="s">
+      <c r="H28" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="80" t="s">
+      <c r="I28" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="106">
         <v>44403</v>
       </c>
-      <c r="K28" s="85">
+      <c r="K28" s="107">
         <v>44407</v>
       </c>
       <c r="O28" s="76"/>
@@ -4514,32 +4556,33 @@
       <c r="Q28" s="27"/>
     </row>
     <row r="29" spans="1:17" s="32" customFormat="1">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="D29" s="101"/>
+      <c r="E29" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="83" t="s">
+      <c r="F29" s="103"/>
+      <c r="G29" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="H29" s="80" t="s">
+      <c r="H29" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="80" t="s">
+      <c r="I29" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="106">
         <v>44403</v>
       </c>
-      <c r="K29" s="85">
+      <c r="K29" s="107">
         <v>44407</v>
       </c>
       <c r="O29" s="76"/>
@@ -4547,39 +4590,40 @@
       <c r="Q29" s="27"/>
     </row>
     <row r="30" spans="1:17" s="32" customFormat="1">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="D30" s="101"/>
+      <c r="E30" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="83" t="s">
+      <c r="F30" s="103"/>
+      <c r="G30" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="80" t="s">
+      <c r="H30" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="80" t="s">
+      <c r="I30" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="106">
         <v>44403</v>
       </c>
-      <c r="K30" s="85">
+      <c r="K30" s="107">
         <v>44407</v>
       </c>
       <c r="O30" s="76"/>
       <c r="P30" s="76"/>
       <c r="Q30" s="27"/>
     </row>
-    <row r="31" spans="1:17" s="32" customFormat="1">
+    <row r="31" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="E31" s="65"/>
@@ -4587,12 +4631,12 @@
       <c r="K31" s="31"/>
       <c r="L31" s="31"/>
     </row>
-    <row r="32" spans="1:17" s="3" customFormat="1">
+    <row r="32" spans="1:17" s="3" customFormat="1" hidden="1">
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
       <c r="M32" s="32"/>
     </row>
-    <row r="33" spans="1:12" s="32" customFormat="1">
+    <row r="33" spans="1:12" s="32" customFormat="1" hidden="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="E33" s="52"/>
@@ -5152,7 +5196,13 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter ref="A1:AM33" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:AM33" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="罗凯凯"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:F1 E33 F2:F3 F6:F7 F16:F17 E35:F1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -5166,10 +5216,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -5247,7 +5298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.95" customHeight="1">
+    <row r="2" spans="1:17" ht="15.95" hidden="1" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>67</v>
       </c>
@@ -5284,7 +5335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="39" customHeight="1">
+    <row r="3" spans="1:17" ht="39" hidden="1" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>67</v>
       </c>
@@ -5321,7 +5372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.95" customHeight="1">
+    <row r="4" spans="1:17" ht="15.95" hidden="1" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>67</v>
       </c>
@@ -5357,7 +5408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.95" customHeight="1">
+    <row r="5" spans="1:17" ht="15.95" hidden="1" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -5394,7 +5445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.95" customHeight="1">
+    <row r="6" spans="1:17" ht="15.95" hidden="1" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -5431,7 +5482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="32" customFormat="1">
+    <row r="7" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A7" s="11" t="s">
         <v>86</v>
       </c>
@@ -5464,7 +5515,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="32" customFormat="1">
+    <row r="8" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A8" s="11" t="s">
         <v>86</v>
       </c>
@@ -5497,7 +5548,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="32" customFormat="1">
+    <row r="9" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A9" s="11" t="s">
         <v>86</v>
       </c>
@@ -5530,7 +5581,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="32" customFormat="1">
+    <row r="10" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A10" s="11" t="s">
         <v>86</v>
       </c>
@@ -5563,7 +5614,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="32" customFormat="1">
+    <row r="11" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A11" s="11" t="s">
         <v>86</v>
       </c>
@@ -5596,7 +5647,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="32" customFormat="1">
+    <row r="12" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A12" s="11" t="s">
         <v>96</v>
       </c>
@@ -5629,7 +5680,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="32" customFormat="1">
+    <row r="13" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A13" s="11" t="s">
         <v>96</v>
       </c>
@@ -5663,72 +5714,72 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="27" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32" t="s">
+      <c r="D14" s="101"/>
+      <c r="E14" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="106">
         <v>44382</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="106">
         <v>44383</v>
       </c>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32">
+      <c r="L14" s="101"/>
+      <c r="M14" s="101">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.95" customHeight="1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="32" t="s">
+      <c r="D15" s="101"/>
+      <c r="E15" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="103"/>
+      <c r="G15" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="106">
         <v>44383</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="106">
         <v>44384</v>
       </c>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32">
+      <c r="L15" s="101"/>
+      <c r="M15" s="101">
         <v>8</v>
       </c>
       <c r="N15" s="50"/>
@@ -5737,37 +5788,37 @@
       <c r="Q15" s="77"/>
     </row>
     <row r="16" spans="1:17" ht="15.95" customHeight="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="32" t="s">
+      <c r="D16" s="101"/>
+      <c r="E16" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="103"/>
+      <c r="G16" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="106">
         <v>44395</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="106">
         <v>44395</v>
       </c>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32">
+      <c r="L16" s="101"/>
+      <c r="M16" s="101">
         <v>12</v>
       </c>
       <c r="N16" s="58"/>
@@ -5776,426 +5827,433 @@
       <c r="Q16" s="78"/>
     </row>
     <row r="17" spans="1:17" ht="15.95" customHeight="1">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="32" t="s">
+      <c r="D17" s="101"/>
+      <c r="E17" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="103"/>
+      <c r="G17" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="106">
         <v>44395</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="106">
         <v>44395</v>
       </c>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32">
+      <c r="L17" s="101"/>
+      <c r="M17" s="101">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.95" customHeight="1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="32" t="s">
+      <c r="D18" s="101"/>
+      <c r="E18" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="103"/>
+      <c r="G18" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="106">
         <v>44384</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="106">
         <v>44384</v>
       </c>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32">
+      <c r="L18" s="101"/>
+      <c r="M18" s="101">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.95" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="32" t="s">
+      <c r="D19" s="101"/>
+      <c r="E19" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="103"/>
+      <c r="G19" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="106">
         <v>44382</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="106">
         <v>44383</v>
       </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32">
+      <c r="L19" s="101"/>
+      <c r="M19" s="101">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="32" t="s">
+      <c r="D20" s="101"/>
+      <c r="E20" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="103"/>
+      <c r="G20" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="H20" s="112"/>
+      <c r="I20" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="32" t="s">
+      <c r="D21" s="101"/>
+      <c r="E21" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="103"/>
+      <c r="G21" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="H21" s="112"/>
+      <c r="I21" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
     </row>
     <row r="22" spans="1:17" ht="15.95" customHeight="1">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="32" t="s">
+      <c r="D22" s="101"/>
+      <c r="E22" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="103"/>
+      <c r="G22" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32" t="s">
+      <c r="H22" s="101"/>
+      <c r="I22" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="K22" s="31"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
     </row>
     <row r="23" spans="1:17" ht="15.95" customHeight="1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="32" t="s">
+      <c r="D23" s="101"/>
+      <c r="E23" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="103"/>
+      <c r="G23" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="32" t="s">
+      <c r="H23" s="113"/>
+      <c r="I23" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
     </row>
     <row r="24" spans="1:17" ht="15.95" customHeight="1">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="32" t="s">
+      <c r="D24" s="101"/>
+      <c r="E24" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="103"/>
+      <c r="G24" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="106">
         <v>44382</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="106">
         <v>44384</v>
       </c>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32">
+      <c r="L24" s="101"/>
+      <c r="M24" s="101">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="32" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="32" t="s">
+      <c r="D25" s="101"/>
+      <c r="E25" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="103"/>
+      <c r="G25" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="I25" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="106">
         <v>44382</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="106">
         <v>44384</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="32">
+      <c r="L25" s="112"/>
+      <c r="M25" s="101">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="32" t="s">
+      <c r="D26" s="101"/>
+      <c r="E26" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="103"/>
+      <c r="G26" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="106">
         <v>44382</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="106">
         <v>44384</v>
       </c>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32">
+      <c r="L26" s="101"/>
+      <c r="M26" s="101">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="32" customFormat="1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="32" t="s">
+      <c r="D27" s="101"/>
+      <c r="E27" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="103"/>
+      <c r="G27" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="106">
         <v>44382</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="106">
         <v>44384</v>
       </c>
-      <c r="M27" s="32">
+      <c r="L27" s="101"/>
+      <c r="M27" s="101">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="32" customFormat="1">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="32" t="s">
+      <c r="D28" s="101"/>
+      <c r="E28" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="103"/>
+      <c r="G28" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="106">
         <v>44382</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="106">
         <v>44384</v>
       </c>
-      <c r="M28" s="32">
+      <c r="L28" s="101"/>
+      <c r="M28" s="101">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="32" t="s">
+      <c r="D29" s="101"/>
+      <c r="E29" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="103"/>
+      <c r="G29" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="106">
         <v>44392</v>
       </c>
-      <c r="K29" s="31">
+      <c r="K29" s="106">
         <v>44397</v>
       </c>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32">
+      <c r="L29" s="101"/>
+      <c r="M29" s="101">
         <v>16</v>
       </c>
       <c r="N29" s="32"/>
@@ -6204,37 +6262,37 @@
       <c r="Q29" s="32"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="32" t="s">
+      <c r="D30" s="101"/>
+      <c r="E30" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="103"/>
+      <c r="G30" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="H30" s="32" t="s">
+      <c r="H30" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="106">
         <v>44397</v>
       </c>
-      <c r="K30" s="31">
+      <c r="K30" s="106">
         <v>44407</v>
       </c>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32">
+      <c r="L30" s="101"/>
+      <c r="M30" s="101">
         <v>80</v>
       </c>
       <c r="N30" s="32"/>
@@ -6242,7 +6300,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
     </row>
-    <row r="31" spans="1:17" s="32" customFormat="1">
+    <row r="31" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A31" s="26" t="s">
         <v>144</v>
       </c>
@@ -6279,7 +6337,7 @@
       <c r="P31" s="76"/>
       <c r="Q31" s="27"/>
     </row>
-    <row r="32" spans="1:17" s="32" customFormat="1" ht="28.5">
+    <row r="32" spans="1:17" s="32" customFormat="1" ht="28.5" hidden="1">
       <c r="A32" s="26" t="s">
         <v>149</v>
       </c>
@@ -6422,7 +6480,7 @@
       <c r="P35" s="76"/>
       <c r="Q35" s="27"/>
     </row>
-    <row r="36" spans="1:17" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="36" spans="1:17" s="32" customFormat="1" ht="33" hidden="1" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>39</v>
       </c>
@@ -6496,7 +6554,7 @@
       <c r="P37" s="76"/>
       <c r="Q37" s="27"/>
     </row>
-    <row r="38" spans="1:17" s="32" customFormat="1">
+    <row r="38" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A38" s="3" t="s">
         <v>27</v>
       </c>
@@ -6534,7 +6592,7 @@
       <c r="P38" s="76"/>
       <c r="Q38" s="27"/>
     </row>
-    <row r="39" spans="1:17" s="32" customFormat="1">
+    <row r="39" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A39" s="11" t="s">
         <v>24</v>
       </c>
@@ -6567,7 +6625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="32" customFormat="1">
+    <row r="40" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A40" s="11" t="s">
         <v>67</v>
       </c>
@@ -6600,7 +6658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="32" customFormat="1">
+    <row r="41" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A41" s="11" t="s">
         <v>67</v>
       </c>
@@ -6633,7 +6691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="32" customFormat="1">
+    <row r="42" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A42" s="11" t="s">
         <v>67</v>
       </c>
@@ -6666,7 +6724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="32" customFormat="1">
+    <row r="43" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A43" s="11" t="s">
         <v>67</v>
       </c>
@@ -6699,7 +6757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="32" customFormat="1">
+    <row r="44" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A44" s="11" t="s">
         <v>167</v>
       </c>
@@ -6732,7 +6790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="32" customFormat="1">
+    <row r="45" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A45" s="11" t="s">
         <v>167</v>
       </c>
@@ -6765,7 +6823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="32" customFormat="1">
+    <row r="46" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A46" s="11" t="s">
         <v>167</v>
       </c>
@@ -6798,7 +6856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="32" customFormat="1">
+    <row r="47" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A47" s="11" t="s">
         <v>167</v>
       </c>
@@ -6831,7 +6889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="32" customFormat="1">
+    <row r="48" spans="1:17" s="32" customFormat="1" hidden="1">
       <c r="A48" s="11" t="s">
         <v>167</v>
       </c>
@@ -6864,7 +6922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="32" customFormat="1">
+    <row r="49" spans="1:13" s="32" customFormat="1" hidden="1">
       <c r="A49" s="11" t="s">
         <v>172</v>
       </c>
@@ -6897,7 +6955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" hidden="1">
       <c r="A50" s="5" t="s">
         <v>72</v>
       </c>
@@ -6934,7 +6992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" hidden="1">
       <c r="A51" s="5" t="s">
         <v>76</v>
       </c>
@@ -6971,7 +7029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" hidden="1">
       <c r="A52" s="11" t="s">
         <v>79</v>
       </c>
@@ -7007,7 +7065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" hidden="1">
       <c r="A53" s="11" t="s">
         <v>83</v>
       </c>
@@ -7037,7 +7095,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" hidden="1">
       <c r="A54" s="5" t="s">
         <v>72</v>
       </c>
@@ -7165,7 +7223,13 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter ref="A1:Q49" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:Q54" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="中浦网络学院"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:F1 F4 E39 F43 F58 E33:E35 E44:E49 F12:F13 F31:F32 F40:F42 F52:F53 E59:F1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -7181,13 +7245,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM197"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J164" sqref="J164"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="61.625" customWidth="1"/>
@@ -14679,6 +14743,43 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="33"/>
+  <pixelatorList sheetStid="34"/>
+  <pixelatorList sheetStid="32"/>
+  <pixelatorList sheetStid="35"/>
+  <pixelatorList sheetStid="26"/>
+  <pixelatorList sheetStid="11"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="33" master=""/>
+  <rangeList sheetStid="34" master=""/>
+  <rangeList sheetStid="32" master=""/>
+  <rangeList sheetStid="35" master=""/>
+  <rangeList sheetStid="26" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="33" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="34" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="32" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="35" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="26" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="11" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings isFilterShared="0" isAutoUpdatePaused="0" filterType="user"/>
+  </woBookProps>
+</woProps>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <autofilters xmlns="https://web.wps.cn/et/2018/main">
   <sheetItem sheetStid="33">
     <filterData filterID="214562802"/>
@@ -14711,49 +14812,12 @@
 </autofilters>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <woSheetsProps>
-    <woSheetProps sheetStid="33" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="34" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="32" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="35" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="26" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="11" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-  </woSheetsProps>
-  <woBookProps>
-    <bookSettings isFilterShared="0" isAutoUpdatePaused="0" filterType="user"/>
-  </woBookProps>
-</woProps>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="33" master=""/>
-  <rangeList sheetStid="34" master=""/>
-  <rangeList sheetStid="32" master=""/>
-  <rangeList sheetStid="35" master=""/>
-  <rangeList sheetStid="26" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="33"/>
-  <pixelatorList sheetStid="34"/>
-  <pixelatorList sheetStid="32"/>
-  <pixelatorList sheetStid="35"/>
-  <pixelatorList sheetStid="26"/>
-  <pixelatorList sheetStid="11"/>
-</pixelators>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -14762,6 +14826,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -14770,17 +14843,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
